--- a/nt/mblog_db.xlsx
+++ b/nt/mblog_db.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\git\m_blog_management\nt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B52E0-3D31-482B-A0DF-58CF04B4C80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A612B75-72F0-47C4-A499-26C5A0848C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="540" windowWidth="26445" windowHeight="14490" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件表" sheetId="8" r:id="rId1"/>
     <sheet name="序列表" sheetId="60" r:id="rId2"/>
+    <sheet name="菜单表" sheetId="61" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1"/>
@@ -286,6 +287,77 @@
   <si>
     <t>m_sys_sequence</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_sys_menu</t>
+  </si>
+  <si>
+    <t>菜单表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_title</t>
+  </si>
+  <si>
+    <t>_key</t>
+  </si>
+  <si>
+    <t>_icon</t>
+  </si>
+  <si>
+    <t>_href</t>
+  </si>
+  <si>
+    <t>_order</t>
+  </si>
+  <si>
+    <t>_group</t>
+  </si>
+  <si>
+    <t>_parent</t>
+  </si>
+  <si>
+    <t>ed_flag</t>
+  </si>
+  <si>
+    <t>启用标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：停用 1：启用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -824,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F84FDBC-6C78-4DF8-BF7B-D54FE4CDD26E}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1257,7 +1329,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1593,4 +1665,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1449548C-2119-4C8B-A306-66A50A6C914D}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_menu;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE echemi_eu.m_sys_menu (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:L18" si="0">"  "&amp;$B4&amp;" "&amp;$D4&amp;""&amp;IF($E4="","",IF($F4="","("&amp;$E4&amp;")","("&amp;$E4&amp;","&amp;$F4&amp;")"))&amp;" "&amp;IF($G4="Y","NOT NULL","DEFAULT "&amp;IF($I4="","NULL",""&amp;IF($D4="varchar","'"&amp;$I4&amp;"'",""&amp;$I4&amp;"")&amp;"")&amp;"")&amp;" "&amp;IF($B4="id","AUTO_INCREMENT ","")&amp;"COMMENT '"&amp;$C4&amp;""&amp;IF($J4="","","("&amp;$J4&amp;")")&amp;"',"</f>
+        <v xml:space="preserve">  id int(11) NOT NULL AUTO_INCREMENT COMMENT 'ID',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A18" si="1">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14">
+        <v>50</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _title varchar(50) NOT NULL COMMENT '序列ID',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14">
+        <v>50</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _key varchar(50) DEFAULT NULL COMMENT 'key',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>50</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _icon varchar(50) DEFAULT NULL COMMENT '图标',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14">
+        <v>100</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _href varchar(100) DEFAULT NULL COMMENT '链接',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="14">
+        <v>11</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _order int(11) DEFAULT NULL COMMENT '序号',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _group tinyint(1) DEFAULT 0 COMMENT '是否是组',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _parent varchar(50) DEFAULT NULL COMMENT '父菜单id',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  ed_flag varchar(1) DEFAULT '1' COMMENT '启用标志(0：停用 1：启用)',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14">
+        <v>50</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_by varchar(50) NOT NULL COMMENT '创建人',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_date datetime NOT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14">
+        <v>50</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_by varchar(50) NOT NULL COMMENT '修改人',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_date datetime NOT NULL COMMENT '修改时间',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_flag int(1) DEFAULT 0 COMMENT '删除标记(0：未删除 1：已删除)',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_date datetime DEFAULT NULL COMMENT '删除时间',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L19" s="2" t="str">
+        <f>"  PRIMARY KEY (id)"</f>
+        <v xml:space="preserve">  PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L20" s="2" t="str">
+        <f>") ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='"&amp;$B$1&amp;"';"</f>
+        <v>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='菜单表';</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H18" xr:uid="{80F70877-D2E3-4111-8C8E-FC730CD566B3}">
+      <formula1>"PK,UK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G18" xr:uid="{FC09E11A-9787-40D7-BFA0-41405A74C234}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/nt/mblog_db.xlsx
+++ b/nt/mblog_db.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\git\m_blog_management\nt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A612B75-72F0-47C4-A499-26C5A0848C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C303B-0904-4857-9198-D5D66FA4F6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="540" windowWidth="26445" windowHeight="14490" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="540" windowWidth="26445" windowHeight="14490" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件表" sheetId="8" r:id="rId1"/>
     <sheet name="序列表" sheetId="60" r:id="rId2"/>
     <sheet name="菜单表" sheetId="61" r:id="rId3"/>
+    <sheet name="类型定义表" sheetId="62" r:id="rId4"/>
+    <sheet name="用户表" sheetId="63" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="105">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1"/>
@@ -357,6 +359,80 @@
   </si>
   <si>
     <t>tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_sys_type_define</t>
+  </si>
+  <si>
+    <t>类型定义表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_type</t>
+  </si>
+  <si>
+    <t>_value</t>
+  </si>
+  <si>
+    <t>_value_other</t>
+  </si>
+  <si>
+    <t>_desc</t>
+  </si>
+  <si>
+    <t>_remark</t>
+  </si>
+  <si>
+    <t>类型id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>类型值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型其他值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_sys_user</t>
+  </si>
+  <si>
+    <t>_uid</t>
+  </si>
+  <si>
+    <t>_pass</t>
+  </si>
+  <si>
+    <t>_email</t>
+  </si>
+  <si>
+    <t>用户uid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户邮箱</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1671,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1449548C-2119-4C8B-A306-66A50A6C914D}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1808,7 +1884,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
@@ -1833,7 +1912,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>68</v>
       </c>
@@ -1858,7 +1940,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
@@ -1883,7 +1968,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>70</v>
       </c>
@@ -1908,7 +1996,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
@@ -1935,7 +2026,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
@@ -1960,7 +2054,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>73</v>
       </c>
@@ -1989,7 +2086,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
@@ -2016,7 +2116,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
@@ -2041,7 +2144,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
@@ -2068,7 +2174,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="B16" s="7" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2202,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>61</v>
       </c>
@@ -2172,4 +2284,912 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB56C69-FED4-4391-B8E5-B4CDBE696052}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_type_define;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE echemi_eu.m_sys_type_define (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:L16" si="0">"  "&amp;$B4&amp;" "&amp;$D4&amp;""&amp;IF($E4="","",IF($F4="","("&amp;$E4&amp;")","("&amp;$E4&amp;","&amp;$F4&amp;")"))&amp;" "&amp;IF($G4="Y","NOT NULL","DEFAULT "&amp;IF($I4="","NULL",""&amp;IF($D4="varchar","'"&amp;$I4&amp;"'",""&amp;$I4&amp;"")&amp;"")&amp;"")&amp;" "&amp;IF($B4="id","AUTO_INCREMENT ","")&amp;"COMMENT '"&amp;$C4&amp;""&amp;IF($J4="","","("&amp;$J4&amp;")")&amp;"',"</f>
+        <v xml:space="preserve">  id int(11) NOT NULL AUTO_INCREMENT COMMENT 'ID',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A16" si="1">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14">
+        <v>50</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _type varchar(50) NOT NULL COMMENT '类型id',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _order int(10) DEFAULT NULL COMMENT '序号',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _value varchar(30) DEFAULT NULL COMMENT '类型值',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14">
+        <v>50</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _value_other varchar(50) DEFAULT NULL COMMENT '类型其他值',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14">
+        <v>100</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _desc varchar(100) DEFAULT NULL COMMENT '类型描述',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14">
+        <v>200</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _remark varchar(200) DEFAULT '0' COMMENT '备注',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_by varchar(50) NOT NULL COMMENT '创建人',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_date datetime NOT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14">
+        <v>50</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_by varchar(50) NOT NULL COMMENT '修改人',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_date datetime NOT NULL COMMENT '修改时间',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_flag int(1) DEFAULT 0 COMMENT '删除标记(0：未删除 1：已删除)',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_date datetime DEFAULT NULL COMMENT '删除时间',</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" ht="20.100000000000001" customHeight="1">
+      <c r="L17" s="2" t="str">
+        <f>"  PRIMARY KEY (id)"</f>
+        <v xml:space="preserve">  PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" ht="20.100000000000001" customHeight="1">
+      <c r="L18" s="2" t="str">
+        <f>") ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='"&amp;$B$1&amp;"';"</f>
+        <v>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='类型定义表';</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G16" xr:uid="{8E673FD1-8EA9-48EC-ADA2-76CC32B0B249}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H16" xr:uid="{F75A11DB-138F-4652-85CC-AE5C885D740F}">
+      <formula1>"PK,UK"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D2EF40-A364-4132-8A80-130EBE2EF249}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_user;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE echemi_eu.m_sys_user (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:L14" si="0">"  "&amp;$B4&amp;" "&amp;$D4&amp;""&amp;IF($E4="","",IF($F4="","("&amp;$E4&amp;")","("&amp;$E4&amp;","&amp;$F4&amp;")"))&amp;" "&amp;IF($G4="Y","NOT NULL","DEFAULT "&amp;IF($I4="","NULL",""&amp;IF($D4="varchar","'"&amp;$I4&amp;"'",""&amp;$I4&amp;"")&amp;"")&amp;"")&amp;" "&amp;IF($B4="id","AUTO_INCREMENT ","")&amp;"COMMENT '"&amp;$C4&amp;""&amp;IF($J4="","","("&amp;$J4&amp;")")&amp;"',"</f>
+        <v xml:space="preserve">  id int(11) NOT NULL AUTO_INCREMENT COMMENT 'ID',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A14" si="1">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _uid varchar(20) NOT NULL COMMENT '用户uid',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _name varchar(20) DEFAULT NULL COMMENT '用户名',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>200</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _pass varchar(200) DEFAULT NULL COMMENT '用户密码',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14">
+        <v>50</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _email varchar(50) DEFAULT NULL COMMENT '用户邮箱',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14">
+        <v>50</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_by varchar(50) NOT NULL COMMENT '创建人',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_date datetime NOT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_by varchar(50) NOT NULL COMMENT '修改人',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_date datetime NOT NULL COMMENT '修改时间',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_flag int(1) DEFAULT 0 COMMENT '删除标记(0：未删除 1：已删除)',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_date datetime DEFAULT NULL COMMENT '删除时间',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L15" s="2" t="str">
+        <f>"  PRIMARY KEY (id)"</f>
+        <v xml:space="preserve">  PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L16" s="2" t="str">
+        <f>") ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='"&amp;$B$1&amp;"';"</f>
+        <v>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='用户表';</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H14" xr:uid="{3CC37AAC-40CF-4BCF-B586-44CFC908A0B9}">
+      <formula1>"PK,UK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G14" xr:uid="{2255DC95-0B18-4149-98B3-4B309EDEF43B}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/nt/mblog_db.xlsx
+++ b/nt/mblog_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\git\m_blog_management\nt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C303B-0904-4857-9198-D5D66FA4F6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5799F870-0F14-4846-A179-24205274B15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="540" windowWidth="26445" windowHeight="14490" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="540" windowWidth="26445" windowHeight="14490" tabRatio="781" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件表" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="菜单表" sheetId="61" r:id="rId3"/>
     <sheet name="类型定义表" sheetId="62" r:id="rId4"/>
     <sheet name="用户表" sheetId="63" r:id="rId5"/>
+    <sheet name="模块表" sheetId="65" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="112">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1"/>
@@ -434,6 +435,34 @@
   <si>
     <t>用户邮箱</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_sys_model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块uid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模块名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模块模板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_template</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -973,7 +1002,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:K14"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1001,8 +1030,8 @@
         <v>51</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
-        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_blob;</v>
+        <f>"DROP TABLE IF EXISTS mblog."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS mblog.m_sys_blob;</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1040,8 +1069,8 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
-        <v>CREATE TABLE echemi_eu.m_sys_blob (</v>
+        <f>"CREATE TABLE mblog."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE mblog.m_sys_blob (</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1405,7 +1434,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1433,8 +1462,8 @@
         <v>63</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
-        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_sequence;</v>
+        <f>"DROP TABLE IF EXISTS mblog."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS mblog.m_sys_sequence;</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1472,8 +1501,8 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
-        <v>CREATE TABLE echemi_eu.m_sys_sequence (</v>
+        <f>"CREATE TABLE mblog."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE mblog.m_sys_sequence (</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1748,7 +1777,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1776,8 +1805,8 @@
         <v>64</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
-        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_menu;</v>
+        <f>"DROP TABLE IF EXISTS mblog."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS mblog.m_sys_menu;</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1815,8 +1844,8 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
-        <v>CREATE TABLE echemi_eu.m_sys_menu (</v>
+        <f>"CREATE TABLE mblog."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE mblog.m_sys_menu (</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2291,7 +2320,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2319,8 +2348,8 @@
         <v>84</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
-        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_type_define;</v>
+        <f>"DROP TABLE IF EXISTS mblog."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS mblog.m_sys_type_define;</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2358,8 +2387,8 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
-        <v>CREATE TABLE echemi_eu.m_sys_type_define (</v>
+        <f>"CREATE TABLE mblog."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE mblog.m_sys_type_define (</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2773,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D2EF40-A364-4132-8A80-130EBE2EF249}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2802,8 +2831,8 @@
         <v>97</v>
       </c>
       <c r="L2" s="2" t="str">
-        <f>"DROP TABLE IF EXISTS echemi_eu."&amp;$B$2&amp;";"</f>
-        <v>DROP TABLE IF EXISTS echemi_eu.m_sys_user;</v>
+        <f>"DROP TABLE IF EXISTS mblog."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS mblog.m_sys_user;</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2841,8 +2870,8 @@
         <v>32</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f>"CREATE TABLE echemi_eu."&amp;$B$2&amp;" ("</f>
-        <v>CREATE TABLE echemi_eu.m_sys_user (</v>
+        <f>"CREATE TABLE mblog."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE mblog.m_sys_user (</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3192,4 +3221,399 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692DE345-7BF1-448E-AAB6-9DCF982B0A77}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>"DROP TABLE IF EXISTS mblog."&amp;$B$2&amp;";"</f>
+        <v>DROP TABLE IF EXISTS mblog.m_sys_model;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>"CREATE TABLE mblog."&amp;$B$2&amp;" ("</f>
+        <v>CREATE TABLE mblog.m_sys_model (</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" ref="L4:L13" si="0">"  "&amp;$B4&amp;" "&amp;$D4&amp;""&amp;IF($E4="","",IF($F4="","("&amp;$E4&amp;")","("&amp;$E4&amp;","&amp;$F4&amp;")"))&amp;" "&amp;IF($G4="Y","NOT NULL","DEFAULT "&amp;IF($I4="","NULL",""&amp;IF($D4="varchar","'"&amp;$I4&amp;"'",""&amp;$I4&amp;"")&amp;"")&amp;"")&amp;" "&amp;IF($B4="id","AUTO_INCREMENT ","")&amp;"COMMENT '"&amp;$C4&amp;""&amp;IF($J4="","","("&amp;$J4&amp;")")&amp;"',"</f>
+        <v xml:space="preserve">  id int(11) NOT NULL AUTO_INCREMENT COMMENT 'ID',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6">
+        <f t="shared" ref="A5:A13" si="1">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _uid varchar(20) NOT NULL COMMENT '模块uid',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _name varchar(20) DEFAULT NULL COMMENT '模块名',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  _template blob DEFAULT NULL COMMENT '模块模板',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14">
+        <v>50</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_by varchar(50) NOT NULL COMMENT '创建人',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  create_date datetime NOT NULL COMMENT '创建时间',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14">
+        <v>50</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_by varchar(50) NOT NULL COMMENT '修改人',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  update_date datetime NOT NULL COMMENT '修改时间',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_flag int(1) DEFAULT 0 COMMENT '删除标记(0：未删除 1：已删除)',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  delete_date datetime DEFAULT NULL COMMENT '删除时间',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L14" s="2" t="str">
+        <f>"  PRIMARY KEY (id)"</f>
+        <v xml:space="preserve">  PRIMARY KEY (id)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L15" s="2" t="str">
+        <f>") ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='"&amp;$B$1&amp;"';"</f>
+        <v>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='模块表';</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G13" xr:uid="{E73417D2-E0AB-4418-A88A-9F951701E94A}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H13" xr:uid="{EDFE65AF-E56B-41DA-8BCB-9642E2DBF7A1}">
+      <formula1>"PK,UK"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>